--- a/Doppelkopf.xlsx
+++ b/Doppelkopf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>Schleicher</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>HF</t>
+  </si>
+  <si>
+    <t>9FD</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -150,8 +159,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -180,7 +191,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -192,6 +203,7 @@
     <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -203,6 +215,7 @@
     <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -298,8 +311,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0801842378235655"/>
-                  <c:y val="-0.03373433350417"/>
+                  <c:x val="0.00858370583724531"/>
+                  <c:y val="0.0130325808139461"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -307,10 +320,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$1:$D$50</c:f>
+              <c:f>Tabelle1!$D$1:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -433,6 +446,48 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-52.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-42.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-34.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-26.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-26.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-32.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-29.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -478,8 +533,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0607434343910604"/>
-                  <c:y val="0.0269090993803289"/>
+                  <c:x val="0.0464921353358146"/>
+                  <c:y val="-0.0414886611620873"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -487,10 +542,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$1:$F$50</c:f>
+              <c:f>Tabelle1!$F$1:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -613,6 +668,48 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-26.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-16.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-28.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-14.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-16.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-22.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,10 +768,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$1:$H$50</c:f>
+              <c:f>Tabelle1!$H$1:$H$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -797,6 +894,48 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -851,10 +990,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$1:$J$50</c:f>
+              <c:f>Tabelle1!$J$1:$J$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -977,6 +1116,48 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-12.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,11 +1174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126725816"/>
-        <c:axId val="2126731000"/>
+        <c:axId val="2074024632"/>
+        <c:axId val="2074029864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126725816"/>
+        <c:axId val="2074024632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,7 +1206,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126731000"/>
+        <c:crossAx val="2074029864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1034,7 +1215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126731000"/>
+        <c:axId val="2074029864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126725816"/>
+        <c:crossAx val="2074024632"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1376,7 +1557,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1384,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1398,7 +1579,7 @@
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -2133,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <f>D33+F33+H33+J33</f>
+        <f t="shared" ref="K33:K55" si="1">D33+F33+H33+J33</f>
         <v>0</v>
       </c>
     </row>
@@ -2154,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="K34">
-        <f>D34+F34+H34+J34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2181,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="K35">
-        <f>D35+F35+H35+J35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2208,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="K36">
-        <f>D36+F36+H36+J36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2238,7 +2419,7 @@
         <v>16</v>
       </c>
       <c r="K37">
-        <f>D37+F37+H37+J37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2268,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="K38">
-        <f>D38+F38+H38+J38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2295,7 +2476,7 @@
         <v>4</v>
       </c>
       <c r="K39">
-        <f>D39+F39+H39+J39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2322,7 +2503,7 @@
         <v>-2</v>
       </c>
       <c r="K40">
-        <f>D40+F40+H40+J40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2352,7 +2533,7 @@
         <v>6</v>
       </c>
       <c r="K41">
-        <f>D41+F41+H41+J41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2360,35 +2541,366 @@
       <c r="A42" t="s">
         <v>8</v>
       </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>-40</v>
+      </c>
+      <c r="F42">
+        <v>-16</v>
+      </c>
+      <c r="H42">
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>9</v>
       </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>-52</v>
+      </c>
+      <c r="F43">
+        <v>-28</v>
+      </c>
+      <c r="H43">
+        <v>52</v>
+      </c>
+      <c r="J43">
+        <v>28</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>10</v>
       </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>-38</v>
+      </c>
+      <c r="F44">
+        <v>-14</v>
+      </c>
+      <c r="H44">
+        <v>38</v>
+      </c>
+      <c r="J44">
+        <v>14</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>7</v>
       </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>-42</v>
+      </c>
+      <c r="F45">
+        <v>-18</v>
+      </c>
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="J45">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>8</v>
       </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>-40</v>
+      </c>
+      <c r="F46">
+        <v>-16</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>16</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>9</v>
       </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>-34</v>
+      </c>
+      <c r="F47">
+        <v>-22</v>
+      </c>
+      <c r="H47">
+        <v>34</v>
+      </c>
+      <c r="J47">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>10</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>-38</v>
+      </c>
+      <c r="F48">
+        <v>-18</v>
+      </c>
+      <c r="H48">
+        <v>38</v>
+      </c>
+      <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>-26</v>
+      </c>
+      <c r="F49">
+        <v>-6</v>
+      </c>
+      <c r="H49">
+        <v>26</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>-38</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>38</v>
+      </c>
+      <c r="J50">
+        <v>-6</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>-26</v>
+      </c>
+      <c r="F51">
+        <v>-6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>50</v>
+      </c>
+      <c r="J51">
+        <v>-18</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>-32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52">
+        <v>44</v>
+      </c>
+      <c r="J52">
+        <v>-12</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>-29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>41</v>
+      </c>
+      <c r="J53">
+        <v>-15</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>-35</v>
+      </c>
+      <c r="F54">
+        <v>-3</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54">
+        <v>-9</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>-34</v>
+      </c>
+      <c r="F55">
+        <v>-4</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>48</v>
+      </c>
+      <c r="J55">
+        <v>-10</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Doppelkopf.xlsx
+++ b/Doppelkopf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
   <si>
     <t>Schleicher</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>RSD</t>
+  </si>
+  <si>
+    <t>DF</t>
   </si>
 </sst>
 </file>
@@ -320,10 +326,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$1:$D$60</c:f>
+              <c:f>Tabelle1!$D$1:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -488,6 +494,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-34.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-44.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-43.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-39.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,10 +563,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$1:$F$60</c:f>
+              <c:f>Tabelle1!$F$1:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -710,6 +731,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,10 +804,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$1:$H$60</c:f>
+              <c:f>Tabelle1!$H$1:$H$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -936,6 +972,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>49.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,10 +1041,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$1:$J$60</c:f>
+              <c:f>Tabelle1!$J$1:$J$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1158,6 +1209,21 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-6.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-8.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-13.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1174,11 +1240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2074024632"/>
-        <c:axId val="2074029864"/>
+        <c:axId val="2094946376"/>
+        <c:axId val="2094951608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2074024632"/>
+        <c:axId val="2094946376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074029864"/>
+        <c:crossAx val="2094951608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1215,7 +1281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2074029864"/>
+        <c:axId val="2094951608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1245,7 +1311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074024632"/>
+        <c:crossAx val="2094946376"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1557,7 +1623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1565,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2314,7 +2380,7 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:K55" si="1">D33+F33+H33+J33</f>
+        <f t="shared" ref="K33:K60" si="1">D33+F33+H33+J33</f>
         <v>0</v>
       </c>
     </row>
@@ -2899,6 +2965,135 @@
         <v>-10</v>
       </c>
       <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>-38</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56">
+        <v>-6</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>-40</v>
+      </c>
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>42</v>
+      </c>
+      <c r="J57">
+        <v>-4</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>-44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>25</v>
+      </c>
+      <c r="H58">
+        <v>46</v>
+      </c>
+      <c r="J58">
+        <v>-8</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>-43</v>
+      </c>
+      <c r="F59">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>45</v>
+      </c>
+      <c r="J59">
+        <v>-9</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>-39</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60">
+        <v>49</v>
+      </c>
+      <c r="J60">
+        <v>-13</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Doppelkopf.xlsx
+++ b/Doppelkopf.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25711"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/git/CardGame/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
   <si>
     <t>Schleicher</t>
   </si>
@@ -97,6 +102,30 @@
   </si>
   <si>
     <t>DF</t>
+  </si>
+  <si>
+    <t>Scheicher</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Ds</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>DsD</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -210,19 +239,19 @@
     <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -317,8 +346,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00858370583724531"/>
-                  <c:y val="0.0130325808139461"/>
+                  <c:x val="-0.0774335571473993"/>
+                  <c:y val="0.0871110260153651"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -326,10 +355,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$D$1:$D$70</c:f>
+              <c:f>Tabelle1!$D$1:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -509,6 +538,48 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-39.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-43.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-38.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-39.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-44.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-41.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-37.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-41.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-65.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-61.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-69.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-81.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-85.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-78.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,8 +625,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0464921353358146"/>
-                  <c:y val="-0.0414886611620873"/>
+                  <c:x val="-0.0252482839882544"/>
+                  <c:y val="-0.149134456597181"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -563,10 +634,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$F$1:$F$70</c:f>
+              <c:f>Tabelle1!$F$1:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -746,6 +817,48 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,8 +908,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0547458626054977"/>
-                  <c:y val="-0.0255706720091941"/>
+                  <c:x val="-0.0741199244393738"/>
+                  <c:y val="-0.033005289232463"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -804,10 +917,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$1:$H$70</c:f>
+              <c:f>Tabelle1!$H$1:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -987,6 +1100,48 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,8 +1187,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0297684945070489"/>
-                  <c:y val="-0.0225667427666216"/>
+                  <c:x val="0.00323152598799259"/>
+                  <c:y val="0.0887523634013833"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1041,10 +1196,10 @@
           </c:trendline>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$1:$J$70</c:f>
+              <c:f>Tabelle1!$J$1:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -1224,6 +1379,48 @@
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>-13.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-13.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-9.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-14.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-13.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-18.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-19.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-7.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-11.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-23.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-27.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-34.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,13 +1435,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094946376"/>
-        <c:axId val="2094951608"/>
+        <c:axId val="2110667264"/>
+        <c:axId val="2110673952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094946376"/>
+        <c:axId val="2110667264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,7 +1468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094951608"/>
+        <c:crossAx val="2110673952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1281,7 +1477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094951608"/>
+        <c:axId val="2110673952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,7 +1507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094946376"/>
+        <c:crossAx val="2110667264"/>
         <c:crossesAt val="1.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1623,7 +1819,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1631,13 +1827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -1652,7 +1848,7 @@
     <col min="11" max="11" width="8.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2">
         <v>0</v>
       </c>
@@ -1697,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>5</v>
       </c>
@@ -1718,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1739,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1760,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1784,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1808,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1832,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1856,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +2100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1928,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1952,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>3</v>
       </c>
@@ -1973,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>3</v>
       </c>
@@ -1994,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2</v>
       </c>
@@ -2015,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>1</v>
       </c>
@@ -2036,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>4</v>
       </c>
@@ -2057,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>4</v>
       </c>
@@ -2078,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -2099,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>6</v>
       </c>
@@ -2120,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -2141,7 +2337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2165,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2189,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2237,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>2</v>
       </c>
@@ -2258,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>4</v>
       </c>
@@ -2279,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2300,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>3</v>
       </c>
@@ -2321,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>2</v>
       </c>
@@ -2342,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>7</v>
       </c>
@@ -2363,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>3</v>
       </c>
@@ -2380,11 +2576,11 @@
         <v>14</v>
       </c>
       <c r="K33">
-        <f t="shared" ref="K33:K60" si="1">D33+F33+H33+J33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <f t="shared" ref="K33:K74" si="1">D33+F33+H33+J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>6</v>
       </c>
@@ -2405,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>6</v>
       </c>
@@ -2432,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>2</v>
       </c>
@@ -2459,7 +2655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2489,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2519,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -2546,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2573,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2603,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2627,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2675,7 +2871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2699,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2723,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2771,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2828,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -2858,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2891,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>3</v>
       </c>
@@ -2915,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>6</v>
       </c>
@@ -2942,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>1</v>
       </c>
@@ -2969,7 +3165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>4</v>
       </c>
@@ -2993,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>2</v>
       </c>
@@ -3017,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>4</v>
       </c>
@@ -3044,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1</v>
       </c>
@@ -3071,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>4</v>
       </c>
@@ -3096,6 +3292,376 @@
       <c r="K60">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>-39</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="H61">
+        <v>49</v>
+      </c>
+      <c r="J61">
+        <v>-13</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>-43</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="H62">
+        <v>45</v>
+      </c>
+      <c r="J62">
+        <v>-9</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>-38</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>-14</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>-39</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="H64">
+        <v>49</v>
+      </c>
+      <c r="J64">
+        <v>-13</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="D65">
+        <v>-44</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="H65">
+        <v>54</v>
+      </c>
+      <c r="J65">
+        <v>-18</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>-41</v>
+      </c>
+      <c r="F66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>51</v>
+      </c>
+      <c r="J66">
+        <v>-15</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>-37</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="H67">
+        <v>47</v>
+      </c>
+      <c r="J67">
+        <v>-19</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>-41</v>
+      </c>
+      <c r="F68">
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <v>9</v>
+      </c>
+      <c r="H68">
+        <v>51</v>
+      </c>
+      <c r="I68" t="s">
+        <v>27</v>
+      </c>
+      <c r="J68">
+        <v>-15</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69">
+        <v>-65</v>
+      </c>
+      <c r="F69">
+        <v>13</v>
+      </c>
+      <c r="H69">
+        <v>59</v>
+      </c>
+      <c r="J69">
+        <v>-7</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>-61</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="H70">
+        <v>55</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70">
+        <v>-3</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>-69</v>
+      </c>
+      <c r="F71">
+        <v>17</v>
+      </c>
+      <c r="H71">
+        <v>63</v>
+      </c>
+      <c r="J71">
+        <v>-11</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>-81</v>
+      </c>
+      <c r="F72">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72">
+        <v>75</v>
+      </c>
+      <c r="J72">
+        <v>-23</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>-85</v>
+      </c>
+      <c r="F73">
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73">
+        <v>87</v>
+      </c>
+      <c r="J73">
+        <v>-27</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D74">
+        <v>-78</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74">
+        <v>32</v>
+      </c>
+      <c r="H74">
+        <v>80</v>
+      </c>
+      <c r="J74">
+        <v>-34</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3103,10 +3669,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>